--- a/data/trans_orig/Q47-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>172.7964615525637</v>
+        <v>172.6901097312601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>172.5597110842614</v>
+        <v>172.5642468666502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173.2598432177779</v>
+        <v>173.3400860596489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174.07551727162</v>
+        <v>174.1004770299391</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>160.5316313421899</v>
+        <v>160.4892754194739</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>160.1281687924099</v>
+        <v>160.0462580695712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>160.6863335945989</v>
+        <v>160.7725650270046</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>161.1215606483372</v>
+        <v>161.1757498777295</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>166.8182043398994</v>
+        <v>166.7033224012621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166.4517749075046</v>
+        <v>166.4409225627495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167.1269153453411</v>
+        <v>167.2259543918628</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>167.6119047404529</v>
+        <v>167.6698215958731</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>174.5149789419254</v>
+        <v>174.3389964870216</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>174.3870689062023</v>
+        <v>174.5092758567768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>175.1774226668396</v>
+        <v>175.2001075838552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176.1085423898038</v>
+        <v>175.9257158450752</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>162.0971646896361</v>
+        <v>162.0146830408335</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>161.7046996016794</v>
+        <v>161.8116095263988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>162.4727165964957</v>
+        <v>162.4320198220086</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>162.3479514160626</v>
+        <v>162.3066376550685</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>168.4290375800834</v>
+        <v>168.3521432600095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>168.1507576364359</v>
+        <v>168.1861518324114</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>168.9251766175471</v>
+        <v>168.8931269683877</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>169.1462184351379</v>
+        <v>169.2403618784673</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>171.9748450576575</v>
+        <v>171.91526875841</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>172.0895375439448</v>
+        <v>172.0688752306056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>171.5746299165197</v>
+        <v>171.4986446212328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172.548821542835</v>
+        <v>172.4929952869155</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>159.716405104764</v>
+        <v>159.725096434718</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>160.0172006099493</v>
+        <v>160.1043460721313</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>159.8411875830207</v>
+        <v>159.9264185405711</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>161.7071220191585</v>
+        <v>161.745144582928</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>165.7870986010792</v>
+        <v>165.8125147440859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166.0924451452439</v>
+        <v>166.0695590934399</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>165.7465407097861</v>
+        <v>165.7589143372569</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>167.132462870092</v>
+        <v>167.1591454437418</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>173.2010427213029</v>
+        <v>173.2037693688797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>173.4215093154234</v>
+        <v>173.4599948006268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>172.9661156166362</v>
+        <v>172.9506966664697</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173.928365104265</v>
+        <v>173.8850427312631</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>160.9055114235814</v>
+        <v>160.8891861216159</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>161.3917472398635</v>
+        <v>161.3910088241433</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>161.0387181801401</v>
+        <v>161.1113163920099</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>162.7400368719429</v>
+        <v>162.7448305027545</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>166.9272018830017</v>
+        <v>167.026528029429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167.2526051067635</v>
+        <v>167.3263633320716</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>166.9405142412958</v>
+        <v>166.9401208138824</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>168.2655753870497</v>
+        <v>168.2941245424767</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>172.0611658158764</v>
+        <v>172.0184255033056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>172.2570307327932</v>
+        <v>172.2936486103551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173.4467985236198</v>
+        <v>173.4286780973434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172.6220072933514</v>
+        <v>172.6266059371764</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>159.6339865599705</v>
+        <v>159.5410707213496</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>160.4833607695998</v>
+        <v>160.4867525623267</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>161.2134010575042</v>
+        <v>161.1528633995431</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>160.6672170027748</v>
+        <v>160.6871771980983</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>165.7616625714248</v>
+        <v>165.740051560935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166.2358385224237</v>
+        <v>166.3229893792318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167.2348457342862</v>
+        <v>167.3019015208053</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>166.4010583944282</v>
+        <v>166.3712463838185</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>173.7040274709843</v>
+        <v>173.6314801296335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>173.755566373468</v>
+        <v>173.7753267275322</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>175.1088552449292</v>
+        <v>175.1033001215905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174.4345974423944</v>
+        <v>174.4217284583321</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>161.1600264581032</v>
+        <v>161.1408866744968</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>161.9488414294469</v>
+        <v>161.9438579337201</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>162.7695907879077</v>
+        <v>162.748953046381</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>161.7906732463996</v>
+        <v>161.7794281567867</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>167.2611512850216</v>
+        <v>167.2449872346983</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>167.6359676155293</v>
+        <v>167.7272932674277</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>168.6635541587513</v>
+        <v>168.6904777518726</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>167.732821027971</v>
+        <v>167.8095082767765</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>173.0492135595846</v>
+        <v>173.0095145544001</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>172.1378178916383</v>
+        <v>172.1644754378407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172.4736000336898</v>
+        <v>172.3935081663212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172.922924127234</v>
+        <v>172.92011223177</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>161.0583049559644</v>
+        <v>161.072524944463</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>160.5036834552494</v>
+        <v>160.4085411005921</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>160.5024651942243</v>
+        <v>160.4853466535905</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>161.3197776212179</v>
+        <v>161.3508451877078</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>166.9860882981395</v>
+        <v>166.9155946975146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166.442597686781</v>
+        <v>166.5130343599641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166.6263980133591</v>
+        <v>166.6708106608257</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>166.820230503509</v>
+        <v>166.8305790757403</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>174.619589825374</v>
+        <v>174.555928359697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>173.8144133152954</v>
+        <v>173.7913344684147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174.1164915027804</v>
+        <v>174.0314962281581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174.7153158318599</v>
+        <v>174.685427844718</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>162.448683903454</v>
+        <v>162.3738623377557</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>162.010981322462</v>
+        <v>161.9399304060669</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>161.9183357281113</v>
+        <v>161.8890129947688</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>162.5880770012794</v>
+        <v>162.6630802985335</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>168.3051105600111</v>
+        <v>168.3047730185465</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167.8946079348247</v>
+        <v>167.9798837197378</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168.0216921698922</v>
+        <v>168.0975958514329</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>168.4457176068729</v>
+        <v>168.3628990433084</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>171.0755523010126</v>
+        <v>171.2624944810717</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>172.8638697846781</v>
+        <v>172.8862673011702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171.8129916904311</v>
+        <v>171.8499875389467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175.6596308952377</v>
+        <v>175.6185065194555</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>159.9870622047444</v>
+        <v>159.9630219683491</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>159.478693795312</v>
+        <v>159.5401224834561</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>160.3186621328841</v>
+        <v>160.3018155104061</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>162.8776713040747</v>
+        <v>162.8572691724799</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>165.6528549961338</v>
+        <v>165.5884326251729</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166.2445198279682</v>
+        <v>166.3141576819135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>165.9635427254848</v>
+        <v>165.8981794395549</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>168.9177935250397</v>
+        <v>168.8878038792099</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>173.262252126626</v>
+        <v>173.3647411761665</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>174.8607913942641</v>
+        <v>174.8678587381188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173.835868285969</v>
+        <v>173.7396396255766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>177.3602214498364</v>
+        <v>177.3628968614864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>161.8786929144246</v>
+        <v>161.8520813207004</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>161.4777247880912</v>
+        <v>161.3943472933106</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>161.9255462989287</v>
+        <v>161.8711140712436</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>163.884653835174</v>
+        <v>163.899553954455</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>167.4160861799635</v>
+        <v>167.4469283656046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>168.2761100868562</v>
+        <v>168.2635006809984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167.6501442583207</v>
+        <v>167.6860062323086</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>170.3754512179165</v>
+        <v>170.3057390875781</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>166.7129163762848</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>167.1668422074575</v>
+        <v>167.1668422074574</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>172.7681461224766</v>
+        <v>172.7541908662336</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>172.4663566006528</v>
+        <v>172.4401005869861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172.13828044851</v>
+        <v>172.2513151546949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171.3788252612022</v>
+        <v>171.3691727364722</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>159.2807142100634</v>
+        <v>159.1585527693743</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>160.0842713816913</v>
+        <v>160.0122283148203</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>159.7074948886427</v>
+        <v>159.674299702667</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>161.1576358074589</v>
+        <v>161.2107639051189</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>165.8867937936569</v>
+        <v>165.8926239386983</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166.3415171237613</v>
+        <v>166.32447123072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165.9055666504442</v>
+        <v>165.9321292520656</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>166.4807218957156</v>
+        <v>166.492541643408</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>174.4374229939681</v>
+        <v>174.4205454905343</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>174.4879220132269</v>
+        <v>174.3194484519519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>174.0495484424845</v>
+        <v>174.0810664250668</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>173.024070672388</v>
+        <v>172.9918166239889</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>160.8525670246268</v>
+        <v>160.8108058990784</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>161.7348478454084</v>
+        <v>161.7300575490624</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>161.2692531731454</v>
+        <v>161.2279700509956</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>162.6547665684093</v>
+        <v>162.6653016620907</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>167.5788862126261</v>
+        <v>167.4843981398986</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>167.9455124012877</v>
+        <v>167.9623304654133</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>167.4859726901346</v>
+        <v>167.5459230183464</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>167.8105087732341</v>
+        <v>167.7654598811442</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>172.9123446803039</v>
+        <v>172.9448053874391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>172.9160950965007</v>
+        <v>172.8803036015922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>175.8853776404154</v>
+        <v>175.8230948994855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173.3780583221969</v>
+        <v>173.3611336433531</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>160.562943523975</v>
+        <v>160.5806694177868</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>161.1546971480005</v>
+        <v>161.0995352180994</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>162.2265265464489</v>
+        <v>162.234297299593</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>161.5802950468705</v>
+        <v>161.593155439651</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>166.6479704486862</v>
+        <v>166.7423068530706</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166.9348614030363</v>
+        <v>166.9339832821916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>168.8963100165907</v>
+        <v>168.8695020892954</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>167.3185933938033</v>
+        <v>167.2703284735985</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>174.0771227646771</v>
+        <v>174.0694670815035</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>174.0746397394062</v>
+        <v>174.0969668687257</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>177.1635734946179</v>
+        <v>177.1285314042383</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174.5680589092858</v>
+        <v>174.6006276732222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>161.7778511834354</v>
+        <v>161.7569560162633</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>162.1910111931858</v>
+        <v>162.1885992595733</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>163.3237686478024</v>
+        <v>163.3279002340006</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>162.5388322387771</v>
+        <v>162.5106193459555</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>167.7381754377145</v>
+        <v>167.841396229225</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>168.0014761458401</v>
+        <v>167.9697078429987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>170.0056180950541</v>
+        <v>169.9626602234906</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>168.3588799419014</v>
+        <v>168.3211930779529</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>173.2054869303308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173.135269336887</v>
+        <v>173.1352693368869</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>161.0473283344328</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>172.6009075500546</v>
+        <v>172.6047639961122</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>172.1406849715506</v>
+        <v>172.1112122748624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>172.6104822560403</v>
+        <v>172.6573369988067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172.6346568963025</v>
+        <v>172.6223520060821</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>160.5919955232133</v>
+        <v>160.5747809492201</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>160.3261240494537</v>
+        <v>160.3070578324101</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>160.7267500894219</v>
+        <v>160.7726720067741</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>162.0047918642167</v>
+        <v>161.9832203674533</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>166.5087680683395</v>
+        <v>166.4759147585789</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>166.0947836171929</v>
+        <v>166.1425777195461</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>166.5076861480572</v>
+        <v>166.55739273574</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>167.2404573435924</v>
+        <v>167.2602533337386</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>173.7114190523577</v>
+        <v>173.6586249865076</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>173.2544878687987</v>
+        <v>173.3194271669292</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>173.7776134189811</v>
+        <v>173.7664081654532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>173.6740702720755</v>
+        <v>173.6333316117314</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>161.500935162855</v>
+        <v>161.495174089046</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>161.1914651655289</v>
+        <v>161.1964125472001</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>161.7720384557162</v>
+        <v>161.7215387274916</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>162.708445624799</v>
+        <v>162.6890518016285</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>167.4553517078758</v>
+        <v>167.4747770113285</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>167.0679921458342</v>
+        <v>167.0896750284165</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>167.5285497733642</v>
+        <v>167.5343051291379</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>168.1061266996299</v>
+        <v>168.0646214947548</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>172.9395355326013</v>
+        <v>172.943260940433</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>172.8764492776783</v>
+        <v>172.8561116756842</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>173.5852221388689</v>
+        <v>173.5222643105131</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>173.428029193425</v>
+        <v>173.4686859511562</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>160.6456869072326</v>
+        <v>160.6514886225675</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>160.7987434034213</v>
+        <v>160.7911117052012</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>161.2327066281573</v>
+        <v>161.1923514615439</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>161.9036522355279</v>
+        <v>161.9065604545671</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>166.7078031994301</v>
+        <v>166.7134362621673</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>166.7750909978487</v>
+        <v>166.7756916948959</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167.3373561093734</v>
+        <v>167.3392253163208</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>167.5505442014831</v>
+        <v>167.5420387446536</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>173.4237117341938</v>
+        <v>173.4350992178273</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>173.3921753622891</v>
+        <v>173.3832673739154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>174.1124571220398</v>
+        <v>174.0954608229893</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>173.9856493957674</v>
+        <v>173.9990854331447</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>161.1109958098429</v>
+        <v>161.0907964983102</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>161.2685947287239</v>
+        <v>161.2678290466687</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>161.7088348250587</v>
+        <v>161.6879564373868</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>162.2908610132243</v>
+        <v>162.2770546146193</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>167.1901405949151</v>
+        <v>167.1686526005541</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>167.2255616375207</v>
+        <v>167.2461748704604</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>167.7885548220953</v>
+        <v>167.8039461639804</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>168.0093534312545</v>
+        <v>167.9946960362607</v>
       </c>
     </row>
     <row r="31">
